--- a/public/preprocessing/@fajaarrb.xlsx
+++ b/public/preprocessing/@fajaarrb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23699</v>
+        <v>24228</v>
       </c>
       <c r="C2" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>laksono jadi bagaimana kawan setelah tahun menyesal kah</t>
+          <t>maen catur pake cheat fungsinya buat apa agar kudanya yg tadinya jalan  bisa jadi  gitu ya</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['laksono', 'jadi', 'bagaimana', 'kawan', 'setelah', 'tahun', 'menyesal', 'kah']</t>
+          <t>['maen', 'catur', 'pake', 'cheat', 'fungsinya', 'buat', 'apa', 'agar', 'kudanya', 'yg', 'tadinya', 'jalan', 'bisa', 'jadi', 'gitu', 'ya']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['main', 'catur', 'pakai', 'cheat', 'fungsinya', 'buat', 'apa', 'agar', 'kudanya', 'yang', 'tadinya', 'jalan', 'bisa', 'jadi', 'begitu', 'ya']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['laksono', 'kawan', 'menyesal', 'kah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['laksono', 'kawan', 'sesal', 'kah']</t>
+          <t>['main', 'catur', 'pakai', 'cheat', 'fungsinya', 'kudanya', 'jalan']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['main', 'catur', 'pakai', 'cheat', 'fungsi', 'kuda', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23700</v>
+        <v>24229</v>
       </c>
       <c r="C3" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>gak bisa bahasa enggrees</t>
+          <t>lumayan bae juta mun tiasa di goyang mah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['gak', 'bisa', 'bahasa', 'enggrees']</t>
+          <t>['lumayan', 'bae', 'juta', 'mun', 'tiasa', 'di', 'goyang', 'mah']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['lumayan', 'baik', 'juta', 'mun', 'tiasa', 'di', 'goyang', 'adalah']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['bahasa', 'enggrees']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['bahasa', 'enggrees']</t>
+          <t>['lumayan', 'juta', 'mun', 'tiasa', 'goyang']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['lumayan', 'juta', 'mun', 'tiasa', 'goyang']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23701</v>
+        <v>24230</v>
       </c>
       <c r="C4" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>saya juga resah manusia yg berseragam coklat suka memelihara koruptor eh tikus maksudnya</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['saya', 'juga', 'resah', 'manusia', 'yg', 'berseragam', 'coklat', 'suka', 'memelihara', 'koruptor', 'eh', 'tikus', 'maksudnya']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['saya', 'juga', 'resah', 'manusia', 'yang', 'berseragam', 'coklat', 'suka', 'memelihara', 'koruptor', 'eh', 'tikus', 'maksudnya']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['resah', 'manusia', 'berseragam', 'coklat', 'suka', 'memelihara', 'koruptor', 'eh', 'tikus', 'maksudnya']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['resah', 'manusia', 'seragam', 'coklat', 'suka', 'pelihara', 'koruptor', 'eh', 'tikus', 'maksud']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23702</v>
+        <v>24231</v>
       </c>
       <c r="C5" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt joko wildoko</t>
+          <t>siap di berangkat keun iyeu mah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'joko', 'wildoko']</t>
+          <t>['siap', 'di', 'berangkat', 'keun', 'iyeu', 'mah']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['siap', 'di', 'berangkat', 'keun', 'iyeu', 'adalah']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['joko', 'wildoko']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['joko', 'wildoko']</t>
+          <t>['berangkat', 'keun', 'iyeu']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['berangkat', 'keun', 'iyeu']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23703</v>
+        <v>24232</v>
       </c>
       <c r="C6" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>hd pria jepang baik baik semua</t>
+          <t>tidak ada yg namanya kesialan hanya saja sedang tidak beruntung</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['hd', 'pria', 'jepang', 'baik', 'baik', 'semua']</t>
+          <t>['tidak', 'ada', 'yg', 'namanya', 'kesialan', 'hanya', 'saja', 'sedang', 'tidak', 'beruntung']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'yang', 'namanya', 'kesialan', 'hanya', 'saja', 'sedang', 'tidak', 'beruntung']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['hd', 'pria', 'jepang']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['hd', 'pria', 'jepang']</t>
+          <t>['namanya', 'kesialan', 'beruntung']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['nama', 'sial', 'untung']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23704</v>
+        <v>24233</v>
       </c>
       <c r="C7" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>oh guin hayang vs kitu nya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['oh', 'guin', 'hayang', 'vs', 'kitu', 'nya']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['oh', 'guin', 'sayang', 'lawan', 'kitu', 'nya']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['oh', 'guin', 'sayang', 'lawan', 'kitu']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['oh', 'guin', 'sayang', 'lawan', 'kitu']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23705</v>
+        <v>24234</v>
       </c>
       <c r="C8" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>kalo lg di kapal mah enak ini gk perlu mikirin makan dan minum</t>
+          <t>request the back up teu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['kalo', 'lg', 'di', 'kapal', 'mah', 'enak', 'ini', 'gk', 'perlu', 'mikirin', 'makan', 'dan', 'minum']</t>
+          <t>['request', 'the', 'back', 'up', 'teu']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['request', 'the', 'back', 'up', 'tau']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['lg', 'kapal', 'mah', 'enak', 'gk', 'mikirin', 'makan', 'minum']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['lg', 'kapal', 'mah', 'enak', 'gk', 'mikirin', 'makan', 'minum']</t>
+          <t>['request', 'the', 'back', 'up']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['request', 'the', 'back', 'up']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23706</v>
+        <v>24235</v>
       </c>
       <c r="C9" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>hd ini ada beritanya</t>
+          <t>rt laksono wtf</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['hd', 'ini', 'ada', 'beritanya']</t>
+          <t>['rt', 'laksono', 'wtf']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'laksono', 'what, the, fuck']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['hd', 'beritanya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['hd', 'berita']</t>
+          <t>['laksono', 'what, the, fuck']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['laksono', 'what the fuck']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23707</v>
+        <v>24236</v>
       </c>
       <c r="C10" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>didu jadi inget klb pssi</t>
+          <t>rt mau impor beras besarbesaran lagi pemburuan rente lagi rente lagi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['didu', 'jadi', 'inget', 'klb', 'pssi']</t>
+          <t>['rt', 'mau', 'impor', 'beras', 'besarbesaran', 'lagi', 'pemburuan', 'rente', 'lagi', 'rente', 'lagi']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'mau', 'impor', 'beras', 'besarbesaran', 'lagi', 'pemburuan', 'rente', 'lagi', 'rente', 'lagi']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['didu', 'inget', 'klb', 'pssi']</t>
+          <t>&lt;FreqDist with 8 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['didu', 'inget', 'klb', 'pssi']</t>
+          <t>['impor', 'beras', 'besarbesaran', 'pemburuan', 'rente', 'rente']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['impor', 'beras', 'besarbesaran', 'buru', 'rente', 'rente']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23708</v>
+        <v>24237</v>
       </c>
       <c r="C11" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>harus ikhlas pak namanya juga manusia</t>
+          <t>rt hari ini maret adalah hari melawan kebrutalan polisi international day against police brutality</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['harus', 'ikhlas', 'pak', 'namanya', 'juga', 'manusia']</t>
+          <t>['rt', 'hari', 'ini', 'maret', 'adalah', 'hari', 'melawan', 'kebrutalan', 'polisi', 'international', 'day', 'against', 'police', 'brutality']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'hari', 'ini', 'maret', 'adalah', 'hari', 'melawan', 'kebrutalan', 'polisi', 'international', 'day', 'against', 'police', 'brutality']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['ikhlas', 'namanya', 'manusia']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['ikhlas', 'nama', 'manusia']</t>
+          <t>['maret', 'melawan', 'kebrutalan', 'polisi', 'international', 'day', 'against', 'police', 'brutality']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['maret', 'lawan', 'brutal', 'polisi', 'international', 'day', 'against', 'police', 'brutality']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23709</v>
+        <v>24238</v>
       </c>
       <c r="C12" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kenaon kitu jing</t>
+          <t>mantap</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['kenaon', 'kitu', 'jing']</t>
+          <t>['mantap']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['mantap']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['kenaon', 'kitu', 'jing']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kenaon', 'kitu', 'jing']</t>
+          <t>['mantap']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['mantap']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23710</v>
+        <v>24239</v>
       </c>
       <c r="C13" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt jokowi produkproduk dalam negeri gaungkan gaungkan juga benci produkproduk luar negeri bukan hanya cinta tapi be</t>
+          <t>rt gimana cara mengindari wa dibajak sebuah utas bukan gimana cara agak ga disadap ya ini sih beda lagi ini tips</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'jokowi', 'produkproduk', 'dalam', 'negeri', 'gaungkan', 'gaungkan', 'juga', 'benci', 'produkproduk', 'luar', 'negeri', 'bukan', 'hanya', 'cinta', 'tapi', 'be']</t>
+          <t>['rt', 'gimana', 'cara', 'mengindari', 'wa', 'dibajak', 'sebuah', 'utas', 'bukan', 'gimana', 'cara', 'agak', 'ga', 'disadap', 'ya', 'ini', 'sih', 'beda', 'lagi', 'ini', 'tips']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'bagaimana', 'cara', 'mengindari', 'wa', 'dibajak', 'sebuah', 'utas', 'bukan', 'bagaimana', 'cara', 'agak', 'tidak', 'disadap', 'ya', 'ini', 'sih', 'beda', 'lagi', 'ini', 'tips']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['jokowi', 'produkproduk', 'negeri', 'gaungkan', 'gaungkan', 'benci', 'produkproduk', 'negeri', 'cinta', 'be']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['jokowi', 'produkproduk', 'negeri', 'gaung', 'gaung', 'benci', 'produkproduk', 'negeri', 'cinta', 'be']</t>
+          <t>['mengindari', 'wa', 'dibajak', 'utas', 'disadap', 'beda', 'tips']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['mengindari', 'wa', 'bajak', 'utas', 'sadap', 'beda', 'tips']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23711</v>
+        <v>24240</v>
       </c>
       <c r="C14" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>hd keur lemah jantung hyung</t>
+          <t>hd rituit ah</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['hd', 'keur', 'lemah', 'jantung', 'hyung']</t>
+          <t>['hd', 'rituit', 'ah']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['high, definition', 'rituit', 'ah']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['hd', 'keur', 'lemah', 'jantung', 'hyung']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['hd', 'keur', 'lemah', 'jantung', 'hyung']</t>
+          <t>['high, definition', 'rituit', 'ah']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['high definition', 'rituit', 'ah']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23712</v>
+        <v>24241</v>
       </c>
       <c r="C15" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>hd banyak ya cowoknya</t>
+          <t>rt clean my soul</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['hd', 'banyak', 'ya', 'cowoknya']</t>
+          <t>['rt', 'clean', 'my', 'soul']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rt', 'clean', 'my', 'soul']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['hd', 'cowoknya']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['hd', 'cowok']</t>
+          <t>['clean', 'my', 'soul']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['clean', 'my', 'soul']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23713</v>
+        <v>24242</v>
       </c>
       <c r="C16" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt dulu dia melarang seorang menteri kabinet jadi pengurus partai sekarang boleh rangkap bahkan ia biarkan menteri mengambi</t>
+          <t>iya sep</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'dulu', 'dia', 'melarang', 'seorang', 'menteri', 'kabinet', 'jadi', 'pengurus', 'partai', 'sekarang', 'boleh', 'rangkap', 'bahkan', 'ia', 'biarkan', 'menteri', 'mengambi']</t>
+          <t>['iya', 'sep']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['iya', 'sep']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['melarang', 'menteri', 'kabinet', 'pengurus', 'partai', 'rangkap', 'biarkan', 'menteri', 'mengambi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['larang', 'menteri', 'kabinet', 'urus', 'partai', 'rangkap', 'biar', 'menteri', 'ambi']</t>
+          <t>['iya', 'sep']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['iya', 'sep']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23714</v>
+        <v>24243</v>
       </c>
       <c r="C17" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>harus ya kita merusak kebahagiaan orang lain</t>
+          <t>banyak di toko serba rb</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['harus', 'ya', 'kita', 'merusak', 'kebahagiaan', 'orang', 'lain']</t>
+          <t>['banyak', 'di', 'toko', 'serba', 'rb']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['banyak', 'di', 'toko', 'serba', 'ribu']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['merusak', 'kebahagiaan', 'orang']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['rusak', 'bahagia', 'orang']</t>
+          <t>['toko', 'serba', 'ribu']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['toko', 'serba', 'ribu']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23715</v>
+        <v>24244</v>
       </c>
       <c r="C18" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>gak mau gak suka gelaay</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['gak', 'mau', 'gak', 'suka', 'gelaay']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tidak', 'mau', 'tidak', 'suka', 'gelaay']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['suka', 'gelaay']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['suka', 'gelaay']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23716</v>
+        <v>24245</v>
       </c>
       <c r="C19" t="n">
-        <v>285</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>rt absolutely stunning view</t>
-        </is>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'absolutely', 'stunning', 'view']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['absolutely', 'stunning', 'view']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['absolutely', 'stunning', 'view']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23717</v>
+        <v>24246</v>
       </c>
       <c r="C20" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt confirmed crucial handball updates from the ifab meeting accidental handball that leads to  teammate scoring </t>
+          <t>kata pengantin dan orang tuanya makan dulu mas silahkan jangan malu malu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'confirmed', 'crucial', 'handball', 'updates', 'from', 'the', 'ifab', 'meeting', 'accidental', 'handball', 'that', 'leads', 'to', 'teammate', 'scoring']</t>
+          <t>['kata', 'pengantin', 'dan', 'orang', 'tuanya', 'makan', 'dulu', 'mas', 'silahkan', 'jangan', 'malu', 'malu']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kata', 'pengantin', 'dan', 'orang', 'tuanya', 'makan', 'dulu', 'mas', 'silakan', 'jangan', 'malu', 'malu']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['confirmed', 'crucial', 'handball', 'updates', 'from', 'the', 'ifab', 'meeting', 'accidental', 'handball', 'that', 'leads', 'to', 'teammate', 'scoring']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['confirmed', 'crucial', 'handball', 'updates', 'from', 'the', 'ifab', 'meeting', 'accidental', 'handball', 'that', 'leads', 'to', 'teammate', 'scoring']</t>
+          <t>['pengantin', 'orang', 'tuanya', 'makan', 'mas', 'silakan', 'malu', 'malu']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['pengantin', 'orang', 'tua', 'makan', 'mas', 'sila', 'malu', 'malu']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23718</v>
+        <v>24247</v>
       </c>
       <c r="C21" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>banyak buzzer lg ngetuit partai demokrat</t>
+          <t>nahh eta oge bari jeung di geprek tea</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['banyak', 'buzzer', 'lg', 'ngetuit', 'partai', 'demokrat']</t>
+          <t>['nahh', 'eta', 'oge', 'bari', 'jeung', 'di', 'geprek', 'tea']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['nah', 'eta', 'juga', 'bari', 'jeung', 'di', 'geprek', 'tea']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['buzzer', 'lg', 'ngetuit', 'partai', 'demokrat']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['buzzer', 'lg', 'ngetuit', 'partai', 'demokrat']</t>
+          <t>['eta', 'bari', 'jeung', 'geprek', 'tea']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['eta', 'bari', 'jeung', 'geprek', 'tea']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23719</v>
+        <v>24248</v>
       </c>
       <c r="C22" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>leuleus tuur leuleus hate</t>
+          <t>aya geh raja gantang</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['leuleus', 'tuur', 'leuleus', 'hate']</t>
+          <t>['aya', 'geh', 'raja', 'gantang']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['ada', 'sana', 'raja', 'gantang']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['leuleus', 'tuur', 'leuleus', 'hate']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['leuleus', 'tuur', 'leuleus', 'hate']</t>
+          <t>['raja', 'gantang']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['raja', 'gantang']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23720</v>
+        <v>24249</v>
       </c>
       <c r="C23" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>iya</t>
+          <t>rt cm apakah kalian juga begini atau aku aja hiks</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['rt', 'cm', 'apakah', 'kalian', 'juga', 'begini', 'atau', 'aku', 'aja', 'hiks']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'cuma', 'apakah', 'kalian', 'juga', 'begini', 'atau', 'aku', 'saja', 'hiks']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['hiks']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['hiks']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23721</v>
+        <v>24250</v>
       </c>
       <c r="C24" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>apa kabar anak stm yg bawa bendera negara saat demo terus dipenjara</t>
+          <t>sengaja sih itu mah bukan karena kebegoan yg nulisnya</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['apa', 'kabar', 'anak', 'stm', 'yg', 'bawa', 'bendera', 'negara', 'saat', 'demo', 'terus', 'dipenjara']</t>
+          <t>['sengaja', 'sih', 'itu', 'mah', 'bukan', 'karena', 'kebegoan', 'yg', 'nulisnya']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['sengaja', 'sih', 'itu', 'adalah', 'bukan', 'karena', 'kebegoan', 'yang', 'menulisnya']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['kabar', 'anak', 'stm', 'bawa', 'bendera', 'negara', 'demo', 'dipenjara']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['kabar', 'anak', 'stm', 'bawa', 'bendera', 'negara', 'demo', 'penjara']</t>
+          <t>['sengaja', 'kebegoan', 'menulisnya']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['sengaja', 'bego', 'tulis']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23722</v>
+        <v>24251</v>
       </c>
       <c r="C25" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>iya</t>
+          <t>yg penting kualitas dan tahan lama</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['yg', 'penting', 'kualitas', 'dan', 'tahan', 'lama']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['yang', 'penting', 'kualitas', 'dan', 'tahan', 'lama']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['kualitas', 'tahan']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['kualitas', 'tahan']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23723</v>
+        <v>24252</v>
       </c>
       <c r="C26" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>karma</t>
+          <t>nawaitul ghusla lirafil hadatsil akbari fardhan lillaahi taaala</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['karma']</t>
+          <t>['nawaitul', 'ghusla', 'lirafil', 'hadatsil', 'akbari', 'fardhan', 'lillaahi', 'taaala']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['nawaitul', 'ghusla', 'lirafil', 'hadatsil', 'akbari', 'fardhan', 'lillaahi', 'taaala']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['karma']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['karma']</t>
+          <t>['nawaitul', 'ghusla', 'lirafil', 'hadatsil', 'akbari', 'fardhan', 'lillaahi', 'taaala']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['nawaitul', 'ghusla', 'lirafil', 'hadatsil', 'akbar', 'fardhan', 'lillaahi', 'taaala']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23724</v>
+        <v>24253</v>
       </c>
       <c r="C27" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>beli sepedah jangan yaaa</t>
+          <t>wabillahi taufik wal hidayah wassalamualaikum warahmatullahi wabarakatuh</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['beli', 'sepedah', 'jangan', 'yaaa']</t>
+          <t>['wabillahi', 'taufik', 'wal', 'hidayah', 'wassalamualaikum', 'warahmatullahi', 'wabarakatuh']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['wabillahi', 'taufik', 'wah', 'hidayah', 'wassalamualaikum', 'warahmatullahi', 'wabarakatuh']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['beli', 'sepedah', 'yaaa']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['beli', 'dah', 'yaaa']</t>
+          <t>['wabillahi', 'taufik', 'hidayah', 'wassalamualaikum', 'warahmatullahi', 'wabarakatuh']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['wabillahi', 'taufik', 'hidayah', 'wassalamualaikum', 'warahmatullahi', 'wabarakatuh']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23725</v>
+        <v>24254</v>
       </c>
       <c r="C28" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>gk usah punya anak udah beban ekonomi beban dosa juga di akhirat</t>
+          <t>takut kena syndrome ajg ih</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['gk', 'usah', 'punya', 'anak', 'udah', 'beban', 'ekonomi', 'beban', 'dosa', 'juga', 'di', 'akhirat']</t>
+          <t>['takut', 'kena', 'syndrome', 'ajg', 'ih']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['takut', 'kena', 'sindrom', 'anjing', 'ih']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['gk', 'anak', 'udah', 'beban', 'ekonomi', 'beban', 'dosa', 'akhirat']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['gk', 'anak', 'udah', 'beban', 'ekonomi', 'beban', 'dosa', 'akhirat']</t>
+          <t>['takut', 'kena', 'sindrom', 'anjing', 'ih']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['takut', 'kena', 'sindrom', 'anjing', 'ih']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23726</v>
+        <v>24255</v>
       </c>
       <c r="C29" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt definisi video call yang sesungguhnya euy</t>
+          <t>gak boleh ini mah urusan yg hakekok</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'definisi', 'video', 'call', 'yang', 'sesungguhnya', 'euy']</t>
+          <t>['gak', 'boleh', 'ini', 'mah', 'urusan', 'yg', 'hakekok']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['tidak', 'boleh', 'ini', 'adalah', 'urusan', 'yang', 'hakekok']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['definisi', 'video', 'call', 'sesungguhnya', 'euy']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['definisi', 'video', 'call', 'sungguh', 'euy']</t>
+          <t>['urusan', 'hakekok']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['urus', 'hakekok']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23727</v>
+        <v>24256</v>
       </c>
       <c r="C30" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt aduh adetheheu</t>
+          <t>minggu depan deh minggu ini mah mau ke semarang</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'aduh', 'adetheheu']</t>
+          <t>['minggu', 'depan', 'deh', 'minggu', 'ini', 'mah', 'mau', 'ke', 'semarang']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['minggu', 'depan', 'deh', 'minggu', 'ini', 'adalah', 'mau', 'ke', 'semarang']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['aduh', 'adetheheu']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['aduh', 'adetheheu']</t>
+          <t>['minggu', 'deh', 'minggu', 'semarang']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['minggu', 'deh', 'minggu', 'semarang']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23728</v>
+        <v>24257</v>
       </c>
       <c r="C31" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sudah terlalu lama kita tidak bersenda gurau</t>
+          <t>bulan ini belum bayar uang sampahnya geh lezz</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['sudah', 'terlalu', 'lama', 'kita', 'tidak', 'bersenda', 'gurau']</t>
+          <t>['bulan', 'ini', 'belum', 'bayar', 'uang', 'sampahnya', 'geh', 'lezz']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['bulan', 'ini', 'belum', 'bayar', 'uang', 'sampahnya', 'sana', 'lezz']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['bersenda', 'gurau']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['senda', 'gurau']</t>
+          <t>['bayar', 'uang', 'sampahnya', 'lezz']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['bayar', 'uang', 'sampah', 'lezz']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23729</v>
+        <v>24258</v>
       </c>
       <c r="C32" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>no penalty no win milan right now</t>
+          <t>allahumma laka shumtu wa bika amantu waala rizqika afthartu birrahmatika yaa arhamar roohimin amin</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['no', 'penalty', 'no', 'win', 'milan', 'right', 'now']</t>
+          <t>['allahumma', 'laka', 'shumtu', 'wa', 'bika', 'amantu', 'waala', 'rizqika', 'afthartu', 'birrahmatika', 'yaa', 'arhamar', 'roohimin', 'amin']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['allahumma', 'laka', 'shumtu', 'wa', 'bika', 'amantu', 'waala', 'rizqika', 'afthartu', 'birrahmatika', 'ya', 'arhamar', 'roohimin', 'amin']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['no', 'penalty', 'no', 'win', 'milan', 'right', 'now']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['no', 'penalty', 'no', 'win', 'mil', 'right', 'now']</t>
+          <t>['allahumma', 'laka', 'shumtu', 'wa', 'bika', 'amantu', 'waala', 'rizqika', 'afthartu', 'birrahmatika', 'arhamar', 'roohimin', 'amin']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['allahumma', 'laka', 'shumtu', 'wa', 'bika', 'amantu', 'waala', 'rizqika', 'afthartu', 'birrahmatika', 'arhamar', 'roohimin', 'amin']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23730</v>
+        <v>24259</v>
       </c>
       <c r="C33" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt tanpa mengurangi rasa hormat alangkah baiknya foto foto kecelakaan lalu lintas gini jgn dishare malah mebuat hati keluarga maki</t>
+          <t>kunaen aing mikiran hal nu tidak penting akhirnya hirup aing jadi tidak penting lagi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'tanpa', 'mengurangi', 'rasa', 'hormat', 'alangkah', 'baiknya', 'foto', 'foto', 'kecelakaan', 'lalu', 'lintas', 'gini', 'jgn', 'dishare', 'malah', 'mebuat', 'hati', 'keluarga', 'maki']</t>
+          <t>['kunaen', 'aing', 'mikiran', 'hal', 'nu', 'tidak', 'penting', 'akhirnya', 'hirup', 'aing', 'jadi', 'tidak', 'penting', 'lagi']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['kunaen', 'aku', 'mikiran', 'hal', 'nu', 'tidak', 'penting', 'akhirnya', 'hirup', 'aku', 'jadi', 'tidak', 'penting', 'lagi']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['mengurangi', 'hormat', 'alangkah', 'baiknya', 'foto', 'foto', 'kecelakaan', 'lintas', 'gini', 'dishare', 'mebuat', 'hati', 'keluarga', 'maki']</t>
+          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['kurang', 'hormat', 'alangkah', 'baik', 'foto', 'foto', 'celaka', 'lintas', 'gin', 'dishare', 'mebuat', 'hati', 'keluarga', 'maki']</t>
+          <t>['kunaen', 'mikiran', 'nu', 'hirup']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['kunaen', 'mikiran', 'nu', 'hirup']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23731</v>
+        <v>24260</v>
       </c>
       <c r="C34" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>kelink satpam yg bunuh maling aja dipenjara kok apalagi itu yg nabrak</t>
+          <t>sudah tapii</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['kelink', 'satpam', 'yg', 'bunuh', 'maling', 'aja', 'dipenjara', 'kok', 'apalagi', 'itu', 'yg', 'nabrak']</t>
+          <t>['sudah', 'tapii']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['sudah', 'tetapi']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['kelink', 'satpam', 'bunuh', 'maling', 'dipenjara', 'nabrak']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['kelink', 'satpam', 'bunuh', 'maling', 'penjara', 'nabrak']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23732</v>
+        <v>24261</v>
       </c>
       <c r="C35" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt tuhan mengapa aku pinter pas sd doang</t>
+          <t>lagi senang tapi nganes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'tuhan', 'mengapa', 'aku', 'pinter', 'pas', 'sd', 'doang']</t>
+          <t>['lagi', 'senang', 'tapi', 'nganes']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['lagi', 'senang', 'tapi', 'nganes']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['tuhan', 'pinter', 'pas', 'sd', 'doang']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['tuhan', 'pinter', 'pas', 'sd', 'doang']</t>
+          <t>['senang', 'nganes']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['senang', 'nganes']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23733</v>
+        <v>24262</v>
       </c>
       <c r="C36" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>afternoon sambal ijonya yg banyak</t>
+          <t>kaminy</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['afternoon', 'sambal', 'ijonya', 'yg', 'banyak']</t>
+          <t>['kaminy']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kaminy']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['afternoon', 'sambal', 'ijonya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['afternoon', 'sambal', 'ijonya']</t>
+          <t>['kaminy']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['kaminy']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23734</v>
+        <v>24263</v>
       </c>
       <c r="C37" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt live feed of starship sn flight test</t>
+          <t>ngising heula</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'live', 'feed', 'of', 'starship', 'sn', 'flight', 'test']</t>
+          <t>['ngising', 'heula']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ngising', 'cepat']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['live', 'feed', 'of', 'starship', 'sn', 'flight', 'test']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['live', 'feed', 'of', 'starship', 'sn', 'flight', 'test']</t>
+          <t>['ngising', 'cepat']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['ngising', 'cepat']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23735</v>
+        <v>24264</v>
       </c>
       <c r="C38" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>biiiaaaasssssaaaaaaaa lah</t>
+          <t>listriknya mati nih</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['biiiaaaasssssaaaaaaaa', 'lah']</t>
+          <t>['listriknya', 'mati', 'nih']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['listriknya', 'mati', 'nih']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['biiiaaaasssssaaaaaaaa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['biiiaaaasssssaaaaaaaa']</t>
+          <t>['listriknya', 'mati']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['listrik', 'mati']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23736</v>
+        <v>24265</v>
       </c>
       <c r="C39" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>tapi pas sekalinya dihubungin takut kabar buruk dari rumah</t>
+          <t>iri mata di ig bacit di twitter</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['tapi', 'pas', 'sekalinya', 'dihubungin', 'takut', 'kabar', 'buruk', 'dari', 'rumah']</t>
+          <t>['iri', 'mata', 'di', 'ig', 'bacit', 'di', 'twitter']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['iri', 'mata', 'di', 'instagram', 'bacit', 'di', 'twitter']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['pas', 'sekalinya', 'dihubungin', 'takut', 'kabar', 'buruk', 'rumah']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['pas', 'sekali', 'dihubungin', 'takut', 'kabar', 'buruk', 'rumah']</t>
+          <t>['iri', 'mata', 'instagram', 'bacit', 'twitter']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['iri', 'mata', 'instagram', 'bacit', 'twitter']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23737</v>
+        <v>24266</v>
       </c>
       <c r="C40" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>sabar tahun kedepan akan penuh dengan kesabaran</t>
+          <t>cuma punya paket unlimited cuma bisa main ig doang sampe bego</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['sabar', 'tahun', 'kedepan', 'akan', 'penuh', 'dengan', 'kesabaran']</t>
+          <t>['cuma', 'punya', 'paket', 'unlimited', 'cuma', 'bisa', 'main', 'ig', 'doang', 'sampe', 'bego']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['cuma', 'punya', 'paket', 'unlimited', 'cuma', 'bisa', 'main', 'instagram', 'doang', 'sampai', 'bego']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['sabar', 'kedepan', 'penuh', 'kesabaran']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['sabar', 'depan', 'penuh', 'sabar']</t>
+          <t>['paket', 'unlimited', 'main', 'instagram', 'doang', 'bego']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['paket', 'unlimited', 'main', 'instagram', 'doang', 'bego']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23738</v>
+        <v>24267</v>
       </c>
       <c r="C41" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt maret maret</t>
+          <t>dah ah jangan sering sering liat akad orang lain</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'maret', 'maret']</t>
+          <t>['dah', 'ah', 'jangan', 'sering', 'sering', 'liat', 'akad', 'orang', 'lain']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
+          <t>['sudah', 'ah', 'jangan', 'sering', 'sering', 'lihat', 'akad', 'orang', 'lain']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['maret', 'maret']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['maret', 'maret']</t>
+          <t>['ah', 'lihat', 'akad', 'orang']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['ah', 'lihat', 'akad', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23739</v>
+        <v>24268</v>
       </c>
       <c r="C42" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ohh ini mah agar kasusnya tidak diperpanjang dan takut terbongkar jika pelakunya adalah tettooott</t>
+          <t>gram emas</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['ohh', 'ini', 'mah', 'agar', 'kasusnya', 'tidak', 'diperpanjang', 'dan', 'takut', 'terbongkar', 'jika', 'pelakunya', 'adalah', 'tettooott']</t>
+          <t>['gram', 'emas']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['gram', 'emas']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['ohh', 'mah', 'kasusnya', 'diperpanjang', 'takut', 'terbongkar', 'pelakunya', 'tettooott']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['ohh', 'mah', 'kasus', 'panjang', 'takut', 'bongkar', 'laku', 'tettooott']</t>
+          <t>['gram', 'emas']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['gram', 'emas']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23740</v>
+        <v>24269</v>
       </c>
       <c r="C43" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rt setelah dipisah dari abri dulu harapannya bisa lebih profesional termyata makin hancur aja ini institusi separahparahnya</t>
+          <t>tempat biasa</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'setelah', 'dipisah', 'dari', 'abri', 'dulu', 'harapannya', 'bisa', 'lebih', 'profesional', 'termyata', 'makin', 'hancur', 'aja', 'ini', 'institusi', 'separahparahnya']</t>
+          <t>['tempat', 'biasa']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['tempat', 'biasa']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['dipisah', 'abri', 'harapannya', 'profesional', 'termyata', 'hancur', 'institusi', 'separahparahnya']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['pisah', 'abri', 'harap', 'profesional', 'termyata', 'hancur', 'institusi', 'separahparahnya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23741</v>
+        <v>24270</v>
       </c>
       <c r="C44" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt best add ever probably yes</t>
+          <t>ternyata gelap ya</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'best', 'add', 'ever', 'probably', 'yes']</t>
+          <t>['ternyata', 'gelap', 'ya']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ternyata', 'gelap', 'ya']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['best', 'add', 'ever', 'probably', 'yes']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['best', 'add', 'ever', 'probably', 'yes']</t>
+          <t>['gelap']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['gelap']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23742</v>
+        <v>24271</v>
       </c>
       <c r="C45" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>orang indonesia juga banyak yg meninggal saat demonstrasi karena tidak cantik jadi tidak viral</t>
+          <t>kalo merasa gk ganteng ya cukur ke dirapihin gitu rambutnya terus dikasih pomade mukanya</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['orang', 'indonesia', 'juga', 'banyak', 'yg', 'meninggal', 'saat', 'demonstrasi', 'karena', 'tidak', 'cantik', 'jadi', 'tidak', 'viral']</t>
+          <t>['kalo', 'merasa', 'gk', 'ganteng', 'ya', 'cukur', 'ke', 'dirapihin', 'gitu', 'rambutnya', 'terus', 'dikasih', 'pomade', 'mukanya']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['kalau', 'merasa', 'tidak', 'ganteng', 'ya', 'cukur', 'ke', 'dirapihin', 'begitu', 'rambutnya', 'terus', 'dikasih', 'pomade', 'mukanya']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['orang', 'indonesia', 'meninggal', 'demonstrasi', 'cantik', 'viral']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['orang', 'indonesia', 'tinggal', 'demonstrasi', 'cantik', 'viral']</t>
+          <t>['ganteng', 'cukur', 'dirapihin', 'rambutnya', 'dikasih', 'pomade', 'mukanya']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['ganteng', 'cukur', 'dirapihin', 'rambut', 'kasih', 'pomade', 'muka']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23743</v>
+        <v>24272</v>
       </c>
       <c r="C46" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>di indonesia sidewalknya buat yg jualan dan tambal ban ehh</t>
+          <t>rt gw sih denger ashiaaapppp menit sebel sih aurel denger itu seumur hidup salut</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['di', 'indonesia', 'sidewalknya', 'buat', 'yg', 'jualan', 'dan', 'tambal', 'ban', 'ehh']</t>
+          <t>['rt', 'gw', 'sih', 'denger', 'ashiaaapppp', 'menit', 'sebel', 'sih', 'aurel', 'denger', 'itu', 'seumur', 'hidup', 'salut']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'gue', 'sih', 'dengar', 'ashiaaapppp', 'menit', 'kesal', 'sih', 'aurel', 'dengar', 'itu', 'seumur', 'hidup', 'salut']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['indonesia', 'sidewalknya', 'jualan', 'tambal', 'ban', 'ehh']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['indonesia', 'sidewalknya', 'jual', 'tambal', 'ban', 'ehh']</t>
+          <t>['gue', 'dengar', 'ashiaaapppp', 'menit', 'kesal', 'aurel', 'dengar', 'seumur', 'hidup', 'salut']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['gue', 'dengar', 'ashiaaapppp', 'menit', 'kesal', 'aurel', 'dengar', 'umur', 'hidup', 'salut']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23744</v>
+        <v>24273</v>
       </c>
       <c r="C47" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt ketika bocah tua kehilangan mainan di dapil dan nemu mainan baru</t>
+          <t>kiwil mau nikahan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'ketika', 'bocah', 'tua', 'kehilangan', 'mainan', 'di', 'dapil', 'dan', 'nemu', 'mainan', 'baru']</t>
+          <t>['kiwil', 'mau', 'nikahan']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['kiwil', 'mau', 'nikahan']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['bocah', 'tua', 'kehilangan', 'mainan', 'dapil', 'nemu', 'mainan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['bocah', 'tua', 'hilang', 'main', 'dapil', 'nemu', 'main']</t>
+          <t>['kiwil', 'nikahan']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['kiwil', 'nikah']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23745</v>
+        <v>24274</v>
       </c>
       <c r="C48" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rt malaysia please claim aldi taher hes  very talented person ever</t>
+          <t>rt walhi soal limbah batu bara negara buat kejahatan lingkungan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rt', 'malaysia', 'please', 'claim', 'aldi', 'taher', 'hes', 'very', 'talented', 'person', 'ever']</t>
+          <t>['rt', 'walhi', 'soal', 'limbah', 'batu', 'bara', 'negara', 'buat', 'kejahatan', 'lingkungan']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'walhi', 'soal', 'limbah', 'batu', 'bara', 'negara', 'buat', 'kejahatan', 'lingkungan']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['malaysia', 'please', 'claim', 'aldi', 'taher', 'hes', 'very', 'talented', 'person', 'ever']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['malaysia', 'please', 'claim', 'aldi', 'taher', 'hes', 'very', 'talented', 'person', 'ever']</t>
+          <t>['walhi', 'limbah', 'batu', 'bara', 'negara', 'kejahatan', 'lingkungan']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['walhi', 'limbah', 'batu', 'bara', 'negara', 'jahat', 'lingkung']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23746</v>
+        <v>24275</v>
       </c>
       <c r="C49" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>coba tanya kan dia seorang nahkoda</t>
+          <t>sometime in the future maybe we can be together maybe share  drink  talk while</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['coba', 'tanya', 'kan', 'dia', 'seorang', 'nahkoda']</t>
+          <t>['sometime', 'in', 'the', 'future', 'maybe', 'we', 'can', 'be', 'together', 'maybe', 'share', 'drink', 'talk', 'while']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['sometime', 'in', 'the', 'future', 'maybe', 'we', 'can', 'be', 'together', 'maybe', 'bagikan', 'drink', 'talk', 'ketika']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['coba', 'nahkoda']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['coba', 'nahkoda']</t>
+          <t>['sometime', 'in', 'the', 'future', 'maybe', 'we', 'can', 'be', 'together', 'maybe', 'bagikan', 'drink', 'talk']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['sometime', 'in', 'the', 'future', 'maybe', 'we', 'can', 'be', 'together', 'maybe', 'bagi', 'drink', 'talk']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23747</v>
+        <v>24276</v>
       </c>
       <c r="C50" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>orang istana mah bebes sih nyenggol dikit langsung penjara</t>
+          <t>lg keasikan dengerin lagunya kodaline yg moving on</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['orang', 'istana', 'mah', 'bebes', 'sih', 'nyenggol', 'dikit', 'langsung', 'penjara']</t>
+          <t>['lg', 'keasikan', 'dengerin', 'lagunya', 'kodaline', 'yg', 'moving', 'on']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['lagi', 'keasikan', 'dengarkan', 'lagunya', 'kodaline', 'yang', 'moving', 'on']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['orang', 'istana', 'mah', 'bebes', 'nyenggol', 'dikit', 'langsung', 'penjara']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['orang', 'istana', 'mah', 'bebes', 'nyenggol', 'dikit', 'langsung', 'penjara']</t>
+          <t>['keasikan', 'dengarkan', 'lagunya', 'kodaline', 'moving', 'on']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['asi', 'dengar', 'lagu', 'kodaline', 'moving', 'on']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23748</v>
+        <v>24277</v>
       </c>
       <c r="C51" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt  need this kind of relaxation</t>
+          <t>sudah jadi trend sejak</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'need', 'this', 'kind', 'of', 'relaxation']</t>
+          <t>['sudah', 'jadi', 'trend', 'sejak']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['sudah', 'jadi', 'tren', 'sejak']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['need', 'this', 'kind', 'of', 'relaxation']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['need', 'this', 'kind', 'of', 'relaxation']</t>
+          <t>['tren']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['tren']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23749</v>
+        <v>24278</v>
       </c>
       <c r="C52" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt in action</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'in', 'action']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'in', 'action']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['in', 'action']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['in', 'action']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23750</v>
+        <v>24279</v>
       </c>
       <c r="C53" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>bete sekaliii</t>
+          <t>bisa diimplementasikan dalam kehidupan saat ini</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['bete', 'sekaliii']</t>
+          <t>['bisa', 'diimplementasikan', 'dalam', 'kehidupan', 'saat', 'ini']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['bisa', 'diimplementasikan', 'dalam', 'kehidupan', 'saat', 'ini']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['bete', 'sekaliii']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['bete', 'sekaliii']</t>
+          <t>['diimplementasikan', 'kehidupan']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['implementasi', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23751</v>
+        <v>24280</v>
       </c>
       <c r="C54" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt that was on  mission to destroy lives</t>
+          <t>gw punya atasan baik banget tp temen temen gw ular semua niat mau mengembangkan diri tapi dikatain penj</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'that', 'was', 'on', 'mission', 'to', 'destroy', 'lives']</t>
+          <t>['gw', 'punya', 'atasan', 'baik', 'banget', 'tp', 'temen', 'temen', 'gw', 'ular', 'semua', 'niat', 'mau', 'mengembangkan', 'diri', 'tapi', 'dikatain', 'penj']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['gue', 'punya', 'atasan', 'baik', 'banget', 'tetapi', 'teman', 'teman', 'gue', 'ular', 'semua', 'niat', 'mau', 'mengembangkan', 'diri', 'tapi', 'diejek', 'penj']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['that', 'was', 'on', 'mission', 'to', 'destroy', 'lives']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['that', 'was', 'on', 'mission', 'to', 'destroy', 'lives']</t>
+          <t>['gue', 'atasan', 'banget', 'teman', 'teman', 'gue', 'ular', 'niat', 'mengembangkan', 'diejek', 'penj']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['gue', 'atas', 'banget', 'teman', 'teman', 'gue', 'ular', 'niat', 'kembang', 'ejek', 'penj']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23752</v>
+        <v>24281</v>
       </c>
       <c r="C55" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt when official speaks even listens igsava</t>
+          <t>saya sudah move on</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'when', 'official', 'speaks', 'even', 'listens', 'igsava']</t>
+          <t>['saya', 'sudah', 'move', 'on']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['saya', 'sudah', 'pindah', 'on']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['when', 'official', 'speaks', 'even', 'listens', 'igsava']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['when', 'official', 'speaks', 'even', 'listens', 'igsava']</t>
+          <t>['pindah', 'on']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['pindah', 'on']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23753</v>
+        <v>24282</v>
       </c>
       <c r="C56" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>komunikasinya perbaiki</t>
+          <t>orang tolol kalo ngomong gk pernah googling dulu ya kan tololnya kelihatan</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['komunikasinya', 'perbaiki']</t>
+          <t>['orang', 'tolol', 'kalo', 'ngomong', 'gk', 'pernah', 'googling', 'dulu', 'ya', 'kan', 'tololnya', 'kelihatan']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['orang', 'tolol', 'kalau', 'berbicara', 'tidak', 'pernah', 'googling', 'dulu', 'ya', 'kan', 'tololnya', 'kelihatan']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['komunikasinya', 'perbaiki']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['komunikasi', 'baik']</t>
+          <t>['orang', 'tolol', 'berbicara', 'googling', 'tololnya']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['orang', 'tolol', 'bicara', 'googling', 'tolol']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23754</v>
+        <v>24283</v>
       </c>
       <c r="C57" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>sini ke kampung aja masih banyan tanah wakaf cuma bayar tukang gali kuburnya aja</t>
+          <t>rt org from to this this</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['sini', 'ke', 'kampung', 'aja', 'masih', 'banyan', 'tanah', 'wakaf', 'cuma', 'bayar', 'tukang', 'gali', 'kuburnya', 'aja']</t>
+          <t>['rt', 'org', 'from', 'to', 'this', 'this']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'orang', 'from', 'to', 'this', 'this']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['kampung', 'banyan', 'tanah', 'wakaf', 'bayar', 'tukang', 'gali', 'kuburnya']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['kampung', 'banyan', 'tanah', 'wakaf', 'bayar', 'tukang', 'gali', 'kubur']</t>
+          <t>['orang', 'from', 'to', 'this', 'this']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['orang', 'from', 'to', 'this', 'this']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23755</v>
+        <v>24284</v>
       </c>
       <c r="C58" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gini nih orang orang bego suka meludahi langit</t>
+          <t>hayang ngobat ngobrolkeun batur tp euweuh partner na</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['gini', 'nih', 'orang', 'orang', 'bego', 'suka', 'meludahi', 'langit']</t>
+          <t>['hayang', 'ngobat', 'ngobrolkeun', 'batur', 'tp', 'euweuh', 'partner', 'na']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['sayang', 'ngobat', 'ngobrolkeun', 'batur', 'tetapi', 'euweuh', 'partner', 'na']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['gini', 'orang', 'orang', 'bego', 'suka', 'meludahi', 'langit']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['gin', 'orang', 'orang', 'bego', 'suka', 'ludah', 'langit']</t>
+          <t>['sayang', 'ngobat', 'ngobrolkeun', 'batur', 'euweuh', 'partner', 'na']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['sayang', 'ngobat', 'ngobrolkeun', 'batur', 'euweuh', 'partner', 'na']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23756</v>
+        <v>24285</v>
       </c>
       <c r="C59" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>seru juga nih</t>
+          <t>loveboki oleh media korea tentunya</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['seru', 'juga', 'nih']</t>
+          <t>['loveboki', 'oleh', 'media', 'korea', 'tentunya']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['loveboki', 'oleh', 'media', 'korea', 'tentunya']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['seru']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['seru']</t>
+          <t>['loveboki', 'media', 'korea']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['loveboki', 'media', 'korea']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23757</v>
+        <v>24286</v>
       </c>
       <c r="C60" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>harus di usut oleh kepolisian tp bayar polisinya mahal</t>
+          <t>loveboki jadi inget wisma atlet yg di review jelek sama atlit korea</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['harus', 'di', 'usut', 'oleh', 'kepolisian', 'tp', 'bayar', 'polisinya', 'mahal']</t>
+          <t>['loveboki', 'jadi', 'inget', 'wisma', 'atlet', 'yg', 'di', 'review', 'jelek', 'sama', 'atlit', 'korea']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['loveboki', 'jadi', 'ingat', 'wisma', 'atlet', 'yang', 'di', 'review', 'jelek', 'sama', 'atlet', 'korea']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['usut', 'kepolisian', 'tp', 'bayar', 'polisinya', 'mahal']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['usut', 'polisi', 'tp', 'bayar', 'polisi', 'mahal']</t>
+          <t>['loveboki', 'wisma', 'atlet', 'review', 'jelek', 'atlet', 'korea']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['loveboki', 'wisma', 'atlet', 'review', 'jelek', 'atlet', 'korea']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23758</v>
+        <v>24287</v>
       </c>
       <c r="C61" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt happy year anniversary</t>
+          <t>rt jkt utangan dari jepang desain juga dari jepang kereta dari jepang kontraktor konsorsium wajib dgn jepang yang kasih penghar</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'happy', 'year', 'anniversary']</t>
+          <t>['rt', 'jkt', 'utangan', 'dari', 'jepang', 'desain', 'juga', 'dari', 'jepang', 'kereta', 'dari', 'jepang', 'kontraktor', 'konsorsium', 'wajib', 'dgn', 'jepang', 'yang', 'kasih', 'penghar']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'pinjaman', 'dari', 'jepang', 'desain', 'juga', 'dari', 'jepang', 'kereta', 'dari', 'jepang', 'kontraktor', 'konsorsium', 'wajib', 'dengan', 'jepang', 'yang', 'kasih', 'penghar']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['happy', 'year', 'anniversary']</t>
+          <t>&lt;FreqDist with 15 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['happy', 'year', 'anniversary']</t>
+          <t>['jakarta', 'pinjaman', 'jepang', 'desain', 'jepang', 'kereta', 'jepang', 'kontraktor', 'konsorsium', 'wajib', 'jepang', 'kasih', 'penghar']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['jakarta', 'pinjam', 'jepang', 'desain', 'jepang', 'kereta', 'jepang', 'kontraktor', 'konsorsium', 'wajib', 'jepang', 'kasih', 'penghar']</t>
         </is>
       </c>
     </row>
@@ -2635,30 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23759</v>
+        <v>24288</v>
       </c>
       <c r="C62" t="n">
-        <v>285</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>lama gk telponan sama si jodoh</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lama', 'gk', 'telponan', 'sama', 'si', 'jodoh']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['lama', 'tidak', 'bertelepon', 'sama', 'sih', 'jodoh']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bertelepon', 'jodoh']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['telepon', 'jodoh']</t>
         </is>
       </c>
     </row>
@@ -2667,34 +2977,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23760</v>
+        <v>24289</v>
       </c>
       <c r="C63" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>sarapan dulu agar lebih kuat menghadapi kenyataan</t>
+          <t>yg gudluking akan kalah sama yg asik wwkwkwk</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['sarapan', 'dulu', 'agar', 'lebih', 'kuat', 'menghadapi', 'kenyataan']</t>
+          <t>['yg', 'gudluking', 'akan', 'kalah', 'sama', 'yg', 'asik', 'wwkwkwk']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['yang', 'gudluking', 'akan', 'kalah', 'sama', 'yang', 'asyik', 'wwkwkwk']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['sarapan', 'kuat', 'menghadapi', 'kenyataan']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['sarap', 'kuat', 'hadap', 'nyata']</t>
+          <t>['gudluking', 'kalah', 'asyik', 'wwkwkwk']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['gudluking', 'kalah', 'asyik', 'wwkwkwk']</t>
         </is>
       </c>
     </row>
@@ -2703,34 +3018,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23761</v>
+        <v>24290</v>
       </c>
       <c r="C64" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt salah satu produk hukum paling mudharat paska reformasi</t>
+          <t>kalo gk imut gk asik</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'salah', 'satu', 'produk', 'hukum', 'paling', 'mudharat', 'paska', 'reformasi']</t>
+          <t>['kalo', 'gk', 'imut', 'gk', 'asik']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kalau', 'tidak', 'imut', 'tidak', 'asyik']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['salah', 'produk', 'hukum', 'mudharat', 'paska', 'reformasi']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['salah', 'produk', 'hukum', 'mudharat', 'paska', 'reformasi']</t>
+          <t>['imut', 'asyik']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['imut', 'asyik']</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23762</v>
+        <v>24291</v>
       </c>
       <c r="C65" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>yoetami supaya beribadahnya khusus tidak mikirin cicilan</t>
+          <t>biasa lah</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['yoetami', 'supaya', 'beribadahnya', 'khusus', 'tidak', 'mikirin', 'cicilan']</t>
+          <t>['biasa', 'lah']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['biasa', 'lah']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['yoetami', 'beribadahnya', 'khusus', 'mikirin', 'cicilan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['yoetami', 'ibadah', 'khusus', 'mikirin', 'cicil']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2775,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23763</v>
+        <v>24292</v>
       </c>
       <c r="C66" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>but bruno playing well so there was no place for dony</t>
+          <t>alhamdulillah weuteuh</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['but', 'bruno', 'playing', 'well', 'so', 'there', 'was', 'no', 'place', 'for', 'dony']</t>
+          <t>['alhamdulillah', 'weuteuh']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['alhamdulillah', 'weuteuh']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['but', 'bruno', 'playing', 'well', 'so', 'there', 'was', 'no', 'place', 'for', 'dony']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['but', 'bruno', 'playing', 'well', 'so', 'there', 'was', 'no', 'place', 'for', 'dony']</t>
+          <t>['alhamdulillah', 'weuteuh']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'weuteuh']</t>
         </is>
       </c>
     </row>
@@ -2811,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23764</v>
+        <v>24293</v>
       </c>
       <c r="C67" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt id dear pelanggan kopi kenangan yg kami hormati sehubungan dengan keluhan yang disampaikan oleh salah satu pelanggan kam</t>
+          <t>nkri harga mati yg mati siapa</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'dear', 'pelanggan', 'kopi', 'kenangan', 'yg', 'kami', 'hormati', 'sehubungan', 'dengan', 'keluhan', 'yang', 'disampaikan', 'oleh', 'salah', 'satu', 'pelanggan', 'kam']</t>
+          <t>['nkri', 'harga', 'mati', 'yg', 'mati', 'siapa']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['negara, kesatuan, republik, indonesia', 'harga', 'mati', 'yang', 'mati', 'siapa']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['id', 'dear', 'pelanggan', 'kopi', 'kenangan', 'hormati', 'sehubungan', 'keluhan', 'salah', 'pelanggan', 'kam']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['id', 'dear', 'langgan', 'kopi', 'kenang', 'hormat', 'hubung', 'keluh', 'salah', 'langgan', 'kam']</t>
+          <t>['negara, kesatuan, republik, indonesia', 'harga', 'mati', 'mati']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['negara satu republik indonesia', 'harga', 'mati', 'mati']</t>
         </is>
       </c>
     </row>
@@ -2847,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23765</v>
+        <v>24294</v>
       </c>
       <c r="C68" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rt laksono mamapolitan besok malam di</t>
+          <t>rt gak boleh nanya umur gak boleh nanya agama gak boleh nanya gaji gak boleh nanya kapan nikah gak boleh nanya jen</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'laksono', 'mamapolitan', 'besok', 'malam', 'di']</t>
+          <t>['rt', 'gak', 'boleh', 'nanya', 'umur', 'gak', 'boleh', 'nanya', 'agama', 'gak', 'boleh', 'nanya', 'gaji', 'gak', 'boleh', 'nanya', 'kapan', 'nikah', 'gak', 'boleh', 'nanya', 'jen']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'tidak', 'boleh', 'bertanya', 'umur', 'tidak', 'boleh', 'bertanya', 'agama', 'tidak', 'boleh', 'bertanya', 'gaji', 'tidak', 'boleh', 'bertanya', 'kapan', 'nikah', 'tidak', 'boleh', 'bertanya', 'jen']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['laksono', 'mamapolitan', 'besok', 'malam']</t>
+          <t>&lt;FreqDist with 10 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['laksono', 'mamapolitan', 'besok', 'malam']</t>
+          <t>['umur', 'agama', 'gaji', 'nikah', 'jen']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['umur', 'agama', 'gaji', 'nikah', 'jen']</t>
         </is>
       </c>
     </row>
@@ -2883,34 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23766</v>
+        <v>24295</v>
       </c>
       <c r="C69" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt jangan terlalu sering makan mie instan di usia tahun wanita ini mengidap tumor payudara dan harus jalani operasi pengang</t>
+          <t>firm saya assistennya juga tidak apa apa dukung jokowi untuk ri seumur hidup</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'jangan', 'terlalu', 'sering', 'makan', 'mie', 'instan', 'di', 'usia', 'tahun', 'wanita', 'ini', 'mengidap', 'tumor', 'payudara', 'dan', 'harus', 'jalani', 'operasi', 'pengang']</t>
+          <t>['firm', 'saya', 'assistennya', 'juga', 'tidak', 'apa', 'apa', 'dukung', 'jokowi', 'untuk', 'ri', 'seumur', 'hidup']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['firm', 'saya', 'assistennya', 'juga', 'tidak', 'apa', 'apa', 'dukung', 'jokowi', 'untuk', 'ri', 'seumur', 'hidup']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['makan', 'mie', 'instan', 'usia', 'wanita', 'mengidap', 'tumor', 'payudara', 'jalani', 'operasi', 'pengang']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['makan', 'mie', 'instan', 'usia', 'wanita', 'idap', 'tumor', 'payudara', 'jalan', 'operasi', 'pengang']</t>
+          <t>['firm', 'assistennya', 'dukung', 'jokowi', 'ri', 'seumur', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['firm', 'assistennya', 'dukung', 'jokowi', 'ri', 'umur', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -2919,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23767</v>
+        <v>24296</v>
       </c>
       <c r="C70" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>makan burger batagor maraton dengan jarak km makan somay tundun program pengkurusan sudah lancar</t>
+          <t>luhut agar pengusaha batu bara tidak terberatkan</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['makan', 'burger', 'batagor', 'maraton', 'dengan', 'jarak', 'km', 'makan', 'somay', 'tundun', 'program', 'pengkurusan', 'sudah', 'lancar']</t>
+          <t>['luhut', 'agar', 'pengusaha', 'batu', 'bara', 'tidak', 'terberatkan']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['luhut', 'agar', 'pengusaha', 'batu', 'bara', 'tidak', 'terberatkan']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['makan', 'burger', 'batagor', 'maraton', 'jarak', 'km', 'makan', 'somay', 'tundun', 'program', 'pengkurusan', 'lancar']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['makan', 'burger', 'batagor', 'maraton', 'jarak', 'km', 'makan', 'somay', 'tundun', 'program', 'kurus', 'lancar']</t>
+          <t>['luhut', 'pengusaha', 'batu', 'bara', 'terberatkan']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['luhut', 'usaha', 'batu', 'bara', 'berat']</t>
         </is>
       </c>
     </row>
@@ -2955,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23768</v>
+        <v>24297</v>
       </c>
       <c r="C71" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>daulay gw tambah likenya</t>
+          <t>rt kemaren bilang mabokan budaya papua sekarang bilang darahnya halal bingung gw ma nalar kolonial</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['daulay', 'gw', 'tambah', 'likenya']</t>
+          <t>['rt', 'kemaren', 'bilang', 'mabokan', 'budaya', 'papua', 'sekarang', 'bilang', 'darahnya', 'halal', 'bingung', 'gw', 'ma', 'nalar', 'kolonial']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'kemarin', 'bilang', 'mabokan', 'budaya', 'papua', 'sekarang', 'bilang', 'darahnya', 'halal', 'bingung', 'gue', 'sama', 'nalar', 'kolonial']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['daulay', 'gw', 'likenya']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['daulay', 'gw', 'likenya']</t>
+          <t>['kemarin', 'mabokan', 'budaya', 'papua', 'darahnya', 'halal', 'bingung', 'gue', 'nalar', 'kolonial']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['kemarin', 'mabokan', 'budaya', 'papua', 'darah', 'halal', 'bingung', 'gue', 'nalar', 'kolonial']</t>
         </is>
       </c>
     </row>
@@ -2991,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23769</v>
+        <v>24298</v>
       </c>
       <c r="C72" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>bapak gibran minta pulsa gibran lg di pasar ini blusukan</t>
+          <t xml:space="preserve">rt org breaking news presiden jokowi menghapus limbah batubara dari kategori limbah berbahaya dan beracun </t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['bapak', 'gibran', 'minta', 'pulsa', 'gibran', 'lg', 'di', 'pasar', 'ini', 'blusukan']</t>
+          <t>['rt', 'org', 'breaking', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'dari', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'orang', 'istirahat', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'dari', 'kategori', 'limbah', 'berbahaya', 'dan', 'beracun']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['gibran', 'pulsa', 'gibran', 'lg', 'pasar', 'blusukan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['gibran', 'pulsa', 'gibran', 'lg', 'pasar', 'blusukan']</t>
+          <t>['orang', 'istirahat', 'news', 'presiden', 'jokowi', 'menghapus', 'limbah', 'batubara', 'kategori', 'limbah', 'berbahaya', 'beracun']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['orang', 'istirahat', 'news', 'presiden', 'jokowi', 'hapus', 'limbah', 'batubara', 'kategori', 'limbah', 'bahaya', 'racun']</t>
         </is>
       </c>
     </row>
@@ -3027,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23770</v>
+        <v>24299</v>
       </c>
       <c r="C73" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt selamat pagi sobat kuli</t>
+          <t>for the food which is tasteless</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'pagi', 'sobat', 'kuli']</t>
+          <t>['for', 'the', 'food', 'which', 'is', 'tasteless']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['for', 'the', 'food', 'which', 'is', 'tasteless']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'sobat', 'kuli']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'sobat', 'kuli']</t>
+          <t>['for', 'the', 'food', 'which', 'is', 'tasteless']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['for', 'the', 'food', 'which', 'is', 'tasteless']</t>
         </is>
       </c>
     </row>
@@ -3063,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23771</v>
+        <v>24300</v>
       </c>
       <c r="C74" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt dis padahal bagus udah bisa bongkar</t>
+          <t>rt teruntuk rekamposting</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'dis', 'padahal', 'bagus', 'udah', 'bisa', 'bongkar']</t>
+          <t>['rt', 'teruntuk', 'rekamposting']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'teruntuk', 'rekamposting']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['dis', 'bagus', 'udah', 'bongkar']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['dis', 'bagus', 'udah', 'bongkar']</t>
+          <t>['teruntuk', 'rekamposting']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['untuk', 'rekamposting']</t>
         </is>
       </c>
     </row>
@@ -3099,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23772</v>
+        <v>24301</v>
       </c>
       <c r="C75" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt ngeri ya mahasiswa di pukulin pakai botol</t>
+          <t>it will destroy the taste of the food</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt', 'ngeri', 'ya', 'mahasiswa', 'di', 'pukulin', 'pakai', 'botol']</t>
+          <t>['it', 'will', 'destroy', 'the', 'taste', 'of', 'the', 'food']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['it', 'will', 'destroy', 'the', 'taste', 'of', 'the', 'food']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['ngeri', 'mahasiswa', 'pukulin', 'pakai', 'botol']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['ngeri', 'mahasiswa', 'pukulin', 'pakai', 'botol']</t>
+          <t>['it', 'will', 'destroy', 'the', 'taste', 'of', 'the', 'food']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['it', 'will', 'destroy', 'the', 'taste', 'of', 'the', 'food']</t>
         </is>
       </c>
     </row>
@@ -3135,34 +3510,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23773</v>
+        <v>24302</v>
       </c>
       <c r="C76" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>gudang garam surya</t>
+          <t>poor buffon he joined psg just want to win ucl and back to juve bcs there is ronaldo</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['gudang', 'garam', 'surya']</t>
+          <t>['poor', 'buffon', 'he', 'joined', 'psg', 'just', 'want', 'to', 'win', 'ucl', 'and', 'back', 'to', 'juve', 'bcs', 'there', 'is', 'ronaldo']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['poor', 'buffon', 'he', 'bergabung', 'psg', 'just', 'want', 'to', 'menang', 'ucl', 'and', 'back', 'to', 'juventus', 'soalnya', 'there', 'is', 'ronaldo']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['gudang', 'garam', 'surya']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['gudang', 'garam', 'surya']</t>
+          <t>['poor', 'buffon', 'he', 'bergabung', 'psg', 'just', 'want', 'to', 'menang', 'ucl', 'and', 'back', 'to', 'juventus', 'there', 'is', 'ronaldo']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['poor', 'buffon', 'he', 'gabung', 'psg', 'just', 'want', 'to', 'menang', 'ucl', 'and', 'back', 'to', 'juventus', 'there', 'is', 'ronaldo']</t>
         </is>
       </c>
     </row>
@@ -3171,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23774</v>
+        <v>24303</v>
       </c>
       <c r="C77" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt siang tadi mendatangi sidang kasus ibu rumah tangga yg protes akan polusi udara dari pabrik tembakau pengadilan menghentik</t>
+          <t>kebalikannya bukan sih hahaha</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'siang', 'tadi', 'mendatangi', 'sidang', 'kasus', 'ibu', 'rumah', 'tangga', 'yg', 'protes', 'akan', 'polusi', 'udara', 'dari', 'pabrik', 'tembakau', 'pengadilan', 'menghentik']</t>
+          <t>['kebalikannya', 'bukan', 'sih', 'hahaha']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['kebalikannya', 'bukan', 'sih', 'haha']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['siang', 'sidang', 'rumah', 'tangga', 'protes', 'polusi', 'udara', 'pabrik', 'tembakau', 'pengadilan', 'menghentik']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['siang', 'sidang', 'rumah', 'tangga', 'protes', 'polusi', 'udara', 'pabrik', 'tembakau', 'adil', 'menghentik']</t>
+          <t>['kebalikannya', 'haha']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['balik', 'haha']</t>
         </is>
       </c>
     </row>
@@ -3207,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23775</v>
+        <v>24304</v>
       </c>
       <c r="C78" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rt tahun</t>
+          <t>bangga jadi diri yg kalo makan gk usah pake kecap manis</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['rt', 'tahun']</t>
+          <t>['bangga', 'jadi', 'diri', 'yg', 'kalo', 'makan', 'gk', 'usah', 'pake', 'kecap', 'manis']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['bangga', 'jadi', 'diri', 'yang', 'kalau', 'makan', 'tidak', 'usah', 'pakai', 'kecap', 'manis']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bangga', 'makan', 'pakai', 'kecap', 'manis']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['bangga', 'makan', 'pakai', 'kecap', 'manis']</t>
         </is>
       </c>
     </row>
@@ -3243,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23776</v>
+        <v>24305</v>
       </c>
       <c r="C79" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ohh ok</t>
+          <t>lah masa mau menghilangkan tamengnya pemerintahan ngacoo ya rakyat indonesia yg ada malah akan dijadikan</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['ohh', 'ok']</t>
+          <t>['lah', 'masa', 'mau', 'menghilangkan', 'tamengnya', 'pemerintahan', 'ngacoo', 'ya', 'rakyat', 'indonesia', 'yg', 'ada', 'malah', 'akan', 'dijadikan']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['lah', 'masa', 'mau', 'menghilangkan', 'tamengnya', 'pemerintahan', 'ngawur', 'ya', 'rakyat', 'indonesia', 'yang', 'ada', 'malah', 'akan', 'dijadikan']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['ohh', 'ok']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['ohh', 'ok']</t>
+          <t>['menghilangkan', 'tamengnya', 'pemerintahan', 'ngawur', 'rakyat', 'indonesia', 'dijadikan']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['hilang', 'tameng', 'perintah', 'ngawur', 'rakyat', 'indonesia', 'jadi']</t>
         </is>
       </c>
     </row>
@@ -3279,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23777</v>
+        <v>24306</v>
       </c>
       <c r="C80" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>miss usa</t>
+          <t>ast sesuatu yg besar dan tahan lama</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['miss', 'usa']</t>
+          <t>['ast', 'sesuatu', 'yg', 'besar', 'dan', 'tahan', 'lama']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ast', 'sesuatu', 'yang', 'besar', 'dan', 'tahan', 'lama']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['miss', 'usa']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['miss', 'usa']</t>
+          <t>['ast', 'tahan']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ast', 'tahan']</t>
         </is>
       </c>
     </row>
@@ -3315,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23778</v>
+        <v>24307</v>
       </c>
       <c r="C81" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>fr jaman cm booming</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['fr', 'jaman', 'cm', 'booming']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['fr', 'jaman', 'cuma', 'booming']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fr', 'jaman', 'booming']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['fr', 'jaman', 'booming']</t>
         </is>
       </c>
     </row>
@@ -3351,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23779</v>
+        <v>24308</v>
       </c>
       <c r="C82" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>kepo legend knows this</t>
+          <t>hd</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['kepo', 'legend', 'knows', 'this']</t>
+          <t>['hd']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['high, definition']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['kepo', 'legend', 'knows', 'this']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['kepo', 'legend', 'knows', 'this']</t>
+          <t>['high, definition']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['high definition']</t>
         </is>
       </c>
     </row>
@@ -3387,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>23780</v>
+        <v>24309</v>
       </c>
       <c r="C83" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>lupa ya</t>
+          <t>hd</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['lupa', 'ya']</t>
+          <t>['hd']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['high, definition']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['lupa']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['lupa']</t>
+          <t>['high, definition']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['high definition']</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23781</v>
+        <v>24310</v>
       </c>
       <c r="C84" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>love from nowhere</t>
+          <t>rt tentara itu untuk perang menghadapi bangsa lain alhamdulillah akhirnya kecerdasan datang papua sbg bangsa lain</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['love', 'from', 'nowhere']</t>
+          <t>['rt', 'tentara', 'itu', 'untuk', 'perang', 'menghadapi', 'bangsa', 'lain', 'alhamdulillah', 'akhirnya', 'kecerdasan', 'datang', 'papua', 'sbg', 'bangsa', 'lain']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'tentara', 'itu', 'untuk', 'perang', 'menghadapi', 'bangsa', 'lain', 'alhamdulillah', 'akhirnya', 'kecerdasan', 'datang', 'papua', 'sebagai', 'bangsa', 'lain']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['love', 'from', 'nowhere']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['love', 'from', 'nowhere']</t>
+          <t>['tentara', 'perang', 'menghadapi', 'bangsa', 'alhamdulillah', 'kecerdasan', 'papua', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['tentara', 'perang', 'hadap', 'bangsa', 'alhamdulillah', 'cerdas', 'papua', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -3459,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23782</v>
+        <v>24311</v>
       </c>
       <c r="C85" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rituit</t>
+          <t>rt bukan prioritas hehehe credit</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['rituit']</t>
+          <t>['rt', 'bukan', 'prioritas', 'hehehe', 'credit']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'bukan', 'prioritas', 'hehe', 'credit']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['rituit']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['rituit']</t>
+          <t>['prioritas', 'credit']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['prioritas', 'credit']</t>
         </is>
       </c>
     </row>
@@ -3495,34 +3920,35 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>23783</v>
+        <v>24312</v>
       </c>
       <c r="C86" t="n">
-        <v>285</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>truth or dare</t>
-        </is>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['truth', 'or', 'dare']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['truth', 'or', 'dare']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['truth', 'or', 'dare']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3531,34 +3957,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23784</v>
+        <v>24313</v>
       </c>
       <c r="C87" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ketika ditanya kenapa makin gendut me</t>
+          <t>alhamdulillah</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['ketika', 'ditanya', 'kenapa', 'makin', 'gendut', 'me']</t>
+          <t>['alhamdulillah']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['alhamdulillah']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['gendut', 'me']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['gendut', 'me']</t>
+          <t>['alhamdulillah']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['alhamdulillah']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +3998,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23785</v>
+        <v>24314</v>
       </c>
       <c r="C88" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>rt itu kantor polisi mba bukan cafe wkwkwk</t>
+          <t>rt ini yang meneriakkan kamu halal darahnya tembak ke para mahasiswa papua kemarin malam kapolresta malang kota leona</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'itu', 'kantor', 'polisi', 'mba', 'bukan', 'cafe', 'wkwkwk']</t>
+          <t>['rt', 'ini', 'yang', 'meneriakkan', 'kamu', 'halal', 'darahnya', 'tembak', 'ke', 'para', 'mahasiswa', 'papua', 'kemarin', 'malam', 'kapolresta', 'malang', 'kota', 'leona']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'ini', 'yang', 'meneriakkan', 'kamu', 'halal', 'darahnya', 'tembak', 'ke', 'para', 'mahasiswa', 'papua', 'kemarin', 'malam', 'kapolresta', 'malang', 'kota', 'leona']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['kantor', 'polisi', 'mba', 'cafe', 'wkwkwk']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['kantor', 'polisi', 'mba', 'cafe', 'wkwkwk']</t>
+          <t>['meneriakkan', 'halal', 'darahnya', 'tembak', 'mahasiswa', 'papua', 'kemarin', 'malam', 'kapolresta', 'malang', 'kota', 'leona']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['teriak', 'halal', 'darah', 'tembak', 'mahasiswa', 'papua', 'kemarin', 'malam', 'kapolresta', 'malang', 'kota', 'leona']</t>
         </is>
       </c>
     </row>
@@ -3603,34 +4039,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23786</v>
+        <v>24315</v>
       </c>
       <c r="C89" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>karena banyak gempa jadi takut kalo tinggal di lantai pas ada gempa lumayan cape nurunin tangga</t>
+          <t>tahu bulat sotongna panjang</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['karena', 'banyak', 'gempa', 'jadi', 'takut', 'kalo', 'tinggal', 'di', 'lantai', 'pas', 'ada', 'gempa', 'lumayan', 'cape', 'nurunin', 'tangga']</t>
+          <t>['tahu', 'bulat', 'sotongna', 'panjang']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tahu', 'bulat', 'sotongna', 'panjang']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['gempa', 'takut', 'tinggal', 'lantai', 'pas', 'gempa', 'lumayan', 'cape', 'nurunin', 'tangga']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['gempa', 'takut', 'tinggal', 'lantai', 'pas', 'gempa', 'lumayan', 'cape', 'nurunin', 'tangga']</t>
+          <t>['bulat', 'sotongna']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['bulat', 'sotongna']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4080,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23787</v>
+        <v>24316</v>
       </c>
       <c r="C90" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt ikan membusuk dimulai dari kepalanya</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'ikan', 'membusuk', 'dimulai', 'dari', 'kepalanya']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['ikan', 'membusuk', 'kepalanya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['ikan', 'busuk', 'kepala']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4121,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23788</v>
+        <v>24317</v>
       </c>
       <c r="C91" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>editansil ejakulasi dini tanpa hasil</t>
+          <t>tapi sama aing dimarahin si ceweknya agar lebih bertanggung jawab sama pilihannya</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['editansil', 'ejakulasi', 'dini', 'tanpa', 'hasil']</t>
+          <t>['tapi', 'sama', 'aing', 'dimarahin', 'si', 'ceweknya', 'agar', 'lebih', 'bertanggung', 'jawab', 'sama', 'pilihannya']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['tapi', 'sama', 'aku', 'dimarahi', 'sih', 'ceweknya', 'agar', 'lebih', 'bertanggung', 'jawab', 'sama', 'pilihannya']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['editansil', 'ejakulasi', 'hasil']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['editansil', 'ejakulasi', 'hasil']</t>
+          <t>['dimarahi', 'ceweknya', 'bertanggung', 'pilihannya']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['marah', 'cewek', 'tanggung', 'pilih']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4162,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23789</v>
+        <v>24318</v>
       </c>
       <c r="C92" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>gimana nih bro</t>
+          <t>ditinggal rabi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['gimana', 'nih', 'bro']</t>
+          <t>['ditinggal', 'rabi']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ditinggal', 'rabi']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['gimana', 'bro']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['gimana', 'bro']</t>
+          <t>['ditinggal', 'rabi']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['tinggal', 'rabi']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4203,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23790</v>
+        <v>24319</v>
       </c>
       <c r="C93" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>jangan banyak gaya kalo masuk kesitu harus lewat orang dalam dan bayar ratusan juta pakai uang orang tua</t>
+          <t>sebentar lagi akan digunduli oleh pemerintah dan sekutunya</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['jangan', 'banyak', 'gaya', 'kalo', 'masuk', 'kesitu', 'harus', 'lewat', 'orang', 'dalam', 'dan', 'bayar', 'ratusan', 'juta', 'pakai', 'uang', 'orang', 'tua']</t>
+          <t>['sebentar', 'lagi', 'akan', 'digunduli', 'oleh', 'pemerintah', 'dan', 'sekutunya']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['sebentar', 'lagi', 'akan', 'digunduli', 'oleh', 'pemerintah', 'dan', 'sekutunya']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['gaya', 'masuk', 'kesitu', 'orang', 'bayar', 'ratusan', 'juta', 'pakai', 'uang', 'orang', 'tua']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['gaya', 'masuk', 'kesitu', 'orang', 'bayar', 'ratus', 'juta', 'pakai', 'uang', 'orang', 'tua']</t>
+          <t>['sebentar', 'digunduli', 'pemerintah', 'sekutunya']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['sebentar', 'gundul', 'perintah', 'sekutu']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4244,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23791</v>
+        <v>24320</v>
       </c>
       <c r="C94" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>setiap jiwa harus mempunyai tanggung jawab kepada tubuhnya contohnya ditempat gw yg jual miras juga</t>
+          <t>jadi bahasannya ngewe semua nih</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['setiap', 'jiwa', 'harus', 'mempunyai', 'tanggung', 'jawab', 'kepada', 'tubuhnya', 'contohnya', 'ditempat', 'gw', 'yg', 'jual', 'miras', 'juga']</t>
+          <t>['jadi', 'bahasannya', 'ngewe', 'semua', 'nih']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['jadi', 'bahasannya', 'ngewe', 'semua', 'nih']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['jiwa', 'tanggung', 'tubuhnya', 'contohnya', 'ditempat', 'gw', 'jual', 'miras']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['jiwa', 'tanggung', 'tubuh', 'contoh', 'tempat', 'gw', 'jual', 'miras']</t>
+          <t>['bahasannya', 'ngewe']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['bahas', 'ngewe']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4285,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23792</v>
+        <v>24321</v>
       </c>
       <c r="C95" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt gsp judul berita ketika momen jan ethes dimarahi mas gibran dimarahi walikota seorang anak nekad lapor ke presiden</t>
+          <t>kasian baturan aing lagi di terror nich</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'gsp', 'judul', 'berita', 'ketika', 'momen', 'jan', 'ethes', 'dimarahi', 'mas', 'gibran', 'dimarahi', 'walikota', 'seorang', 'anak', 'nekad', 'lapor', 'ke', 'presiden']</t>
+          <t>['kasian', 'baturan', 'aing', 'lagi', 'di', 'terror', 'nich']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['kasihan', 'baturan', 'aku', 'lagi', 'di', 'terror', 'nih']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['gsp', 'judul', 'berita', 'momen', 'jan', 'ethes', 'dimarahi', 'mas', 'gibran', 'dimarahi', 'walikota', 'anak', 'nekad', 'lapor', 'presiden']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['gsp', 'judul', 'berita', 'momen', 'jan', 'ethes', 'marah', 'mas', 'gibran', 'marah', 'walikota', 'anak', 'nekad', 'lapor', 'presiden']</t>
+          <t>['kasihan', 'baturan', 'terror']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['kasihan', 'baturan', 'terror']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4326,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23793</v>
+        <v>24322</v>
       </c>
       <c r="C96" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt ayo bangun ini tahun sebelum klik download jangan lupa pastiin sizenya gak lebih dari mb</t>
+          <t>cowoknya kurang gudluking jadi ceweknya merasa jiwjiwk</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'ayo', 'bangun', 'ini', 'tahun', 'sebelum', 'klik', 'download', 'jangan', 'lupa', 'pastiin', 'sizenya', 'gak', 'lebih', 'dari', 'mb']</t>
+          <t>['cowoknya', 'kurang', 'gudluking', 'jadi', 'ceweknya', 'merasa', 'jiwjiwk']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['cowoknya', 'kurang', 'gudluking', 'jadi', 'ceweknya', 'merasa', 'jiwjiwk']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['ayo', 'bangun', 'klik', 'download', 'lupa', 'pastiin', 'sizenya', 'mb']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['ayo', 'bangun', 'klik', 'download', 'lupa', 'pastiin', 'sizenya', 'mb']</t>
+          <t>['cowoknya', 'gudluking', 'ceweknya', 'jiwjiwk']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['cowok', 'gudluking', 'cewek', 'jiwjiwk']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4367,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23794</v>
+        <v>24323</v>
       </c>
       <c r="C97" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>tidak melihat adanya kelucuan disini hmmmm hhmmm hhmmm</t>
+          <t>sama seperti rumah ini yg di kolong rumahnya banyak tumbila tongo dan undur undur</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['tidak', 'melihat', 'adanya', 'kelucuan', 'disini', 'hmmmm', 'hhmmm', 'hhmmm']</t>
+          <t>['sama', 'seperti', 'rumah', 'ini', 'yg', 'di', 'kolong', 'rumahnya', 'banyak', 'tumbila', 'tongo', 'dan', 'undur', 'undur']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['sama', 'seperti', 'rumah', 'ini', 'yang', 'di', 'kolong', 'rumahnya', 'banyak', 'tumbila', 'tongo', 'dan', 'undur', 'undur']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['kelucuan', 'hmmmm', 'hhmmm', 'hhmmm']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['lucu', 'hmmmm', 'hhmmm', 'hhmmm']</t>
+          <t>['rumah', 'kolong', 'rumahnya', 'tumbila', 'tongo', 'undur', 'undur']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['rumah', 'kolong', 'rumah', 'tumbila', 'tongo', 'undur', 'undur']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4408,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23795</v>
+        <v>24324</v>
       </c>
       <c r="C98" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt siapa yg bilang budaya goblok binatang</t>
+          <t>mood dibalik doom</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'siapa', 'yg', 'bilang', 'budaya', 'goblok', 'binatang']</t>
+          <t>['mood', 'dibalik', 'doom']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['suasana, hati', 'dibalik', 'doom']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['budaya', 'goblok', 'binatang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['budaya', 'goblok', 'binatang']</t>
+          <t>['suasana, hati', 'dibalik', 'doom']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['suasana hati', 'balik', 'doom']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4449,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23796</v>
+        <v>24325</v>
       </c>
       <c r="C99" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>bukan pengorbanannya aja sih yg mereka tangisi pasti karena tahu anaknya disiksa sama se</t>
+          <t>jenis jenis corona</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['bukan', 'pengorbanannya', 'aja', 'sih', 'yg', 'mereka', 'tangisi', 'pasti', 'karena', 'tahu', 'anaknya', 'disiksa', 'sama', 'se']</t>
+          <t>['jenis', 'jenis', 'corona']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['jenis', 'jenis', 'corona']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['pengorbanannya', 'tangisi', 'anaknya', 'disiksa']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['korban', 'tangis', 'anak', 'siksa']</t>
+          <t>['jenis', 'jenis', 'corona']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['jenis', 'jenis', 'corona']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4490,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23797</v>
+        <v>24326</v>
       </c>
       <c r="C100" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>bangsat mimumannya highclass banget aku mah apa atuh cuma bisa kebeli sirup marjan dari pada mereka yg beli sirup monin</t>
+          <t>kurang cabe sama kerupuk</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['bangsat', 'mimumannya', 'highclass', 'banget', 'aku', 'mah', 'apa', 'atuh', 'cuma', 'bisa', 'kebeli', 'sirup', 'marjan', 'dari', 'pada', 'mereka', 'yg', 'beli', 'sirup', 'monin']</t>
+          <t>['kurang', 'cabe', 'sama', 'kerupuk']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['kurang', 'cabe', 'sama', 'kerupuk']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['bangsat', 'mimumannya', 'highclass', 'banget', 'mah', 'atuh', 'kebeli', 'sirup', 'marjan', 'beli', 'sirup', 'monin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['bangsat', 'mimumannya', 'highclass', 'banget', 'mah', 'atuh', 'kebel', 'sirup', 'marjan', 'beli', 'sirup', 'monin']</t>
+          <t>['cabe', 'kerupuk']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['cabe', 'kerupuk']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4531,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23798</v>
+        <v>24327</v>
       </c>
       <c r="C101" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>selamat pagi matahari ko matahari kan kamu hitam kebakar matahari</t>
+          <t>meee</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'matahari', 'ko', 'matahari', 'kan', 'kamu', 'hitam', 'kebakar', 'matahari']</t>
+          <t>['meee']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
+          <t>['meee']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'matahari', 'ko', 'matahari', 'hitam', 'kebakar', 'matahari']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'matahari', 'ko', 'matahari', 'hitam', 'bakar', 'matahari']</t>
+          <t>['meee']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['meee']</t>
         </is>
       </c>
     </row>
